--- a/Bases de datos.xlsx
+++ b/Bases de datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecno\Documents\Informes semanales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecno\Documents\Informes semanales\Git-Open-Market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510F1C1-5043-4627-88CC-D43C419C9163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D142DAF-E5EF-4F29-9A2C-E8896D10EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="904" activeTab="6" xr2:uid="{7568C62E-EF14-4C17-B0A9-3C467532C37B}"/>
   </bookViews>
@@ -28,10 +28,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="126" r:id="rId10"/>
-    <pivotCache cacheId="127" r:id="rId11"/>
-    <pivotCache cacheId="128" r:id="rId12"/>
-    <pivotCache cacheId="176" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3770,7 +3770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A92AA865-BD55-4063-9545-805A45A888C2}" name="TablaDinámica24" cacheId="176" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A92AA865-BD55-4063-9545-805A45A888C2}" name="TablaDinámica24" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:H7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -3882,7 +3882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EA434B6-851F-4040-A4B1-FCD518AB3BBD}" name="TablaDinámica8" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EA434B6-851F-4040-A4B1-FCD518AB3BBD}" name="TablaDinámica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3984,7 +3984,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{572A2FF9-EADF-4871-B8B6-ACB7FE96D66B}" name="TablaDinámica10" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{572A2FF9-EADF-4871-B8B6-ACB7FE96D66B}" name="TablaDinámica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4104,7 +4104,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF74079E-32AB-4229-A27A-EB154A53F319}" name="TablaDinámica12" cacheId="128" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF74079E-32AB-4229-A27A-EB154A53F319}" name="TablaDinámica12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -12210,10 +12210,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C14FD3-DA2E-4E34-9DED-FA71A785B3DE}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14089,6 +14089,11 @@
       </c>
       <c r="E110" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos.xlsx
+++ b/Bases de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecno\Documents\Informes semanales\Git-Open-Market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D142DAF-E5EF-4F29-9A2C-E8896D10EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C62C5-CFA1-4307-B374-FBB53FBB8EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="904" activeTab="6" xr2:uid="{7568C62E-EF14-4C17-B0A9-3C467532C37B}"/>
   </bookViews>
@@ -12210,10 +12210,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C14FD3-DA2E-4E34-9DED-FA71A785B3DE}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14089,11 +14089,6 @@
       </c>
       <c r="E110" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
